--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111759.1303648751</v>
+        <v>110248.8936678676</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325126</v>
+        <v>23347074.56340345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.246650703</v>
+        <v>8645685.345390849</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4965027.986238807</v>
+        <v>5019083.174428143</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>170.016082914965</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>291.6115384509264</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.7304401437077</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>125.658475013283</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>403.8643073193109</v>
       </c>
       <c r="F5" t="n">
-        <v>243.5101911994155</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>65.56631229518105</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>99.76404627534831</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>125.9970442232951</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>28.84968802901818</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.765369836341</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.057407276233978</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>9.169714451388327</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>175.7069998349403</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>4.609587791059592</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52836099037898</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.35369462431554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>375.9790740437533</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>327.5057043920406</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>20.97478045648731</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2087,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>66.73274206433675</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>246.3590692018454</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2324,19 +2326,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>244.5148872964057</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>164.665155195827</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>35.75633396116289</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>244.6903493140397</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>251.637889245679</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>96.68259506970324</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2849,16 +2851,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>3.839792629064049</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>267.960108666679</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>327.9183258711724</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3196,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>33.28996520190781</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3272,19 +3274,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>28.90513582528572</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,10 +3325,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>28.1920619696941</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>93.35579545862593</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>160.3236401378641</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022511</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>35.16791248334732</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>155.9995894427411</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>129.084621233348</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>268.3727301458104</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318.974446717864</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="C2" t="n">
-        <v>890.3927724551322</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4328,52 +4330,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1613.531556264254</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.974446717864</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1318.974446717864</v>
+        <v>205.6770856874316</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,34 +4397,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.4712490740719</v>
+        <v>664.9024004297028</v>
       </c>
       <c r="C4" t="n">
-        <v>592.4712490740719</v>
+        <v>492.3406889129277</v>
       </c>
       <c r="D4" t="n">
-        <v>592.4712490740719</v>
+        <v>326.4626961144504</v>
       </c>
       <c r="E4" t="n">
-        <v>592.4712490740719</v>
+        <v>326.4626961144504</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>326.4626961144504</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>160.8714211402781</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4712490740719</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y4" t="n">
-        <v>592.4712490740719</v>
+        <v>664.9024004297028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.913558702028</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C5" t="n">
-        <v>279.913558702028</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="D5" t="n">
-        <v>279.913558702028</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="E5" t="n">
-        <v>279.913558702028</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4568,25 +4570,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4595,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.499252887282</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y5" t="n">
-        <v>706.2131291869358</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.9021756729128</v>
+        <v>365.5392701431375</v>
       </c>
       <c r="C7" t="n">
-        <v>685.9021756729128</v>
+        <v>365.5392701431375</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>365.5392701431375</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>365.5392701431375</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>188.8322161048937</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>188.8322161048937</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W7" t="n">
-        <v>1350.532219744379</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X7" t="n">
-        <v>1105.140465077792</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.7207943919</v>
+        <v>365.5392701431375</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>724.4716545351282</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C8" t="n">
-        <v>724.4716545351282</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D8" t="n">
-        <v>724.4716545351282</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E8" t="n">
-        <v>724.4716545351282</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1569.913688440725</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1569.913688440725</v>
+        <v>1668.042331061207</v>
       </c>
       <c r="W8" t="n">
-        <v>1569.913688440725</v>
+        <v>1263.18687647224</v>
       </c>
       <c r="X8" t="n">
-        <v>1150.771225020036</v>
+        <v>844.044413051551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1150.771225020036</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="9">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.6507226398521</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>461.8110981924006</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C11" t="n">
-        <v>461.8110981924006</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8110981924006</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5042,19 +5044,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5084,7 +5086,7 @@
         <v>873.1855120707613</v>
       </c>
       <c r="Y11" t="n">
-        <v>464.8993883704147</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5121,19 +5123,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>854.5838762389023</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5203,13 +5205,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M13" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N13" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5230,19 +5232,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1273.822165643781</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1273.822165643781</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1273.822165643781</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>1273.822165643781</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>1046.40249495789</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1697.183430080417</v>
+        <v>38.59981788550692</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D14" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>411.4384072922223</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5279,16 +5281,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
         <v>687.9235674375537</v>
@@ -5315,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.183430080417</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.183430080417</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="15">
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.285430710942</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>365.0515783881802</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>188.3445243499364</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>188.3445243499364</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>48.44235004031091</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5458,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W16" t="n">
-        <v>885.9154747824084</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X16" t="n">
-        <v>640.5237201158209</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.1040494299291</v>
+        <v>365.0515783881802</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1270.883859595509</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="C17" t="n">
-        <v>842.3021853327778</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="D17" t="n">
-        <v>413.7205110700461</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.183430080417</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.6920270441282</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C19" t="n">
-        <v>55.1303155273531</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L19" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M19" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X19" t="n">
-        <v>646.930316449007</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y19" t="n">
-        <v>419.5106457631153</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1856.919248142115</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="C20" t="n">
-        <v>1418.776775325538</v>
+        <v>1567.840596342901</v>
       </c>
       <c r="D20" t="n">
-        <v>982.8669904999824</v>
+        <v>1131.930811517346</v>
       </c>
       <c r="E20" t="n">
-        <v>549.0922456582775</v>
+        <v>1131.930811517346</v>
       </c>
       <c r="F20" t="n">
-        <v>121.2248160674853</v>
+        <v>704.0633819265533</v>
       </c>
       <c r="G20" t="n">
-        <v>53.81800590148855</v>
+        <v>302.6655505498172</v>
       </c>
       <c r="H20" t="n">
         <v>53.81800590148855</v>
@@ -5753,10 +5755,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L20" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M20" t="n">
         <v>1149.495958523325</v>
@@ -5765,13 +5767,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5783,19 +5785,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W20" t="n">
-        <v>2265.205371842461</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X20" t="n">
-        <v>2265.205371842461</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="Y20" t="n">
-        <v>1856.919248142115</v>
+        <v>2005.983069159478</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
         <v>53.40121652862856</v>
@@ -5920,7 +5922,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5935,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2513.567303138386</v>
+        <v>1576.252829563191</v>
       </c>
       <c r="C23" t="n">
-        <v>2075.424830321809</v>
+        <v>1138.110356746614</v>
       </c>
       <c r="D23" t="n">
-        <v>1639.515045496254</v>
+        <v>702.2005719210588</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.740300654549</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F23" t="n">
-        <v>777.8728710637567</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G23" t="n">
-        <v>376.4750396870206</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>522.5995725831548</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1356.949864541333</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L23" t="n">
-        <v>1843.101864396492</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M23" t="n">
-        <v>1843.101864396492</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N23" t="n">
-        <v>1843.101864396492</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O23" t="n">
-        <v>2823.281530966799</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>3651.591405800194</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>4198.090191758789</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>4147.177029384884</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U23" t="n">
-        <v>3887.954726701901</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V23" t="n">
-        <v>3525.337776635727</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="W23" t="n">
-        <v>3359.009337043983</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="X23" t="n">
-        <v>2939.866873623293</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="Y23" t="n">
-        <v>2939.866873623293</v>
+        <v>2002.552400048099</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.5166301215297</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>487.060168958172</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9698801047252</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>297.8494654316789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4656270478405</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0805373140244</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>113.4085582906945</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>437.9668832569068</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1633.411868514706</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1687.129209057429</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1556.950565388031</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1380.614018387999</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.496500449998</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>996.1737461831922</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>841.3063104220721</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.8205312012929</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>937.8409222071682</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C25" t="n">
-        <v>765.2792106903931</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D25" t="n">
-        <v>599.4012178919158</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E25" t="n">
-        <v>429.6432141426531</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F25" t="n">
-        <v>252.9361601044092</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3448851302369</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2704.004495033037</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S25" t="n">
-        <v>2685.765325990352</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T25" t="n">
-        <v>2439.885879568807</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U25" t="n">
-        <v>2161.452878821913</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V25" t="n">
-        <v>1874.497370692343</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W25" t="n">
-        <v>1602.470966278635</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X25" t="n">
-        <v>1357.079211612047</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y25" t="n">
-        <v>1129.659540926155</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1361.228219012466</v>
+        <v>991.5079608390889</v>
       </c>
       <c r="C26" t="n">
-        <v>923.0857461958889</v>
+        <v>991.5079608390889</v>
       </c>
       <c r="D26" t="n">
-        <v>487.1759613703334</v>
+        <v>991.5079608390889</v>
       </c>
       <c r="E26" t="n">
-        <v>53.40121652862856</v>
+        <v>991.5079608390889</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6230,46 +6232,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M26" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N26" t="n">
-        <v>1149.495958523325</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O26" t="n">
-        <v>1293.567921177998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U26" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V26" t="n">
-        <v>2449.993599304466</v>
+        <v>2223.792002549092</v>
       </c>
       <c r="W26" t="n">
-        <v>2449.993599304466</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="X26" t="n">
-        <v>2195.81391319772</v>
+        <v>1399.794084539436</v>
       </c>
       <c r="Y26" t="n">
-        <v>1787.527789497373</v>
+        <v>991.5079608390889</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>968.8969033375045</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C28" t="n">
-        <v>871.2377163984103</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D28" t="n">
-        <v>705.359723599933</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E28" t="n">
-        <v>535.6017198506702</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6388,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y28" t="n">
-        <v>1160.715522056492</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.737693134413</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C29" t="n">
-        <v>917.5952203178363</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D29" t="n">
-        <v>481.6854354922808</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E29" t="n">
-        <v>481.6854354922808</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F29" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G29" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6479,10 +6481,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2449.993599304466</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.771296621483</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V29" t="n">
-        <v>2186.892718208287</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.037263619321</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.037263619321</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.037263619321</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.1364226482442</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>749.5747111314691</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>583.6967183329918</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>413.9387145837291</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>237.2316605454853</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6625,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2145.748379262989</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1586.766466719711</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1789.095648603258</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.953175786681</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="D32" t="n">
-        <v>915.0433909611256</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6716,10 +6718,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6734,16 +6736,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W32" t="n">
-        <v>2670.060826431428</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X32" t="n">
-        <v>2623.681342788512</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y32" t="n">
-        <v>2215.395219088166</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6780,19 +6782,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O33" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>867.0923738769416</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>694.5306623601665</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>528.6526695616892</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>358.8946658124264</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6862,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2615.016777660126</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2369.137331238581</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.704330491686</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1803.748822362116</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1531.722417948408</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1286.330663281821</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.910992595929</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2078.642592532902</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="C35" t="n">
-        <v>1640.500119716325</v>
+        <v>1318.576262321712</v>
       </c>
       <c r="D35" t="n">
-        <v>1204.590334890769</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E35" t="n">
-        <v>770.8155900490646</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F35" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G35" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K35" t="n">
-        <v>518.3865980530361</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L35" t="n">
-        <v>1179.226652594814</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M35" t="n">
-        <v>1179.226652594814</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N35" t="n">
-        <v>1179.226652594814</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O35" t="n">
-        <v>1840.066707136593</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P35" t="n">
-        <v>2500.906761678371</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2640.8637195372</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488303</v>
+        <v>2420.796492410239</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.11942280532</v>
+        <v>2161.574189727256</v>
       </c>
       <c r="V35" t="n">
-        <v>2078.642592532902</v>
+        <v>2161.574189727256</v>
       </c>
       <c r="W35" t="n">
-        <v>2078.642592532902</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="X35" t="n">
-        <v>2078.642592532902</v>
+        <v>1756.718735138289</v>
       </c>
       <c r="Y35" t="n">
-        <v>2078.642592532902</v>
+        <v>1756.718735138289</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7099,7 +7101,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7120,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1011.477214236518</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="C38" t="n">
-        <v>1011.477214236518</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="D38" t="n">
-        <v>575.5674294109622</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E38" t="n">
-        <v>575.5674294109622</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F38" t="n">
-        <v>147.6999998201699</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>687.540662806093</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M38" t="n">
-        <v>687.540662806093</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N38" t="n">
-        <v>1348.380717347871</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O38" t="n">
-        <v>2009.22077188965</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="P38" t="n">
-        <v>2670.060826431428</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q38" t="n">
         <v>2670.060826431428</v>
@@ -7199,25 +7201,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W38" t="n">
-        <v>2265.205371842461</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X38" t="n">
-        <v>1846.062908421772</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="Y38" t="n">
-        <v>1437.776784721425</v>
+        <v>1177.703947303853</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516122</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>568.9155211348371</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>403.0375283363599</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>233.2795245870971</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>56.57247054885332</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7336,13 +7338,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434796</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013251</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705994</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1824.618792525831</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C41" t="n">
-        <v>1386.476319709254</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D41" t="n">
-        <v>950.5665348836988</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E41" t="n">
-        <v>516.7917900419939</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F41" t="n">
-        <v>88.92436045120161</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N41" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.918363010739</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="Y41" t="n">
-        <v>2250.918363010739</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C42" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D42" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E42" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F42" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G42" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I42" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J42" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q42" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R42" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S42" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T42" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U42" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V42" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W42" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X42" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y42" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7573,7 +7575,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C44" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D44" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E44" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F44" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>323.4906125312521</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V44" t="n">
-        <v>855.2769502042993</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W44" t="n">
-        <v>724.8884439079882</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X44" t="n">
-        <v>724.8884439079882</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.8884439079882</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M46" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.524240083786</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>1516.524240083786</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>1516.524240083786</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>1516.524240083786</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.820447932477</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8143,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>288.796249040161</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8371,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,10 +8692,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8769,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8851,7 +8853,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M13" t="n">
         <v>424.2958575201044</v>
@@ -8860,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9097,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9325,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>491.0626261163229</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9878,25 +9880,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O26" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10428,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K35" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,22 +10828,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>640.5448952297621</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10987,7 +10989,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11458,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22547,16 +22549,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>253.5726723799193</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>123.339500335556</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>12.20954335415368</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12.8446775532462</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22790,10 +22792,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>25.57269007397684</v>
       </c>
       <c r="F5" t="n">
-        <v>180.0785640954689</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22835,19 +22837,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22948,19 +22950,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>72.93684027134817</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>169.5420940942231</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>130.6330354328582</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>330.1410925364935</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23188,16 +23190,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>27.16999238808958</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418.9791675038247</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>414.419040843496</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>99.94167090448542</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>429.1514602973513</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>50.28158547030785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>160.3077334112283</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23668,10 +23670,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>73.41965510875588</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>53.45792334953444</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>96.08305090284369</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>143.2444324140052</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>330.651110998632</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>39.87978380937054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24035,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>184.922110096882</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>236.14174484725</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>135.0797604404444</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>178.8984059808446</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>163.3131495408034</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>74.15349933190407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>355.1509879364477</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9909301198034</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>101.5186715221153</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24974,13 +24976,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>124.3589898130755</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>53.91021925271564</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>330.7987185958176</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>304.0280576043428</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>254.6273986486183</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>362.2159405796214</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>258.9514493437413</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>271.722278809729</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>146.578308640672</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>348952.8680817558</v>
+        <v>348952.8680817555</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348952.8680817556</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681143.2958989568</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490892.2801502735</v>
+        <v>490892.2801502736</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490892.2801502734</v>
+        <v>490892.2801502736</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490892.2801502735</v>
+        <v>490892.2801502736</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490892.2801502735</v>
+        <v>490892.2801502736</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348952.8680817556</v>
+        <v>490892.2801502736</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>90151.75317155512</v>
       </c>
       <c r="C2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="D2" t="n">
         <v>90151.75317155514</v>
       </c>
       <c r="E2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="F2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="G2" t="n">
-        <v>90151.75317155513</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="H2" t="n">
         <v>126821.7106717144</v>
       </c>
       <c r="I2" t="n">
-        <v>175972.9404830555</v>
+        <v>126821.7106717145</v>
       </c>
       <c r="J2" t="n">
         <v>126821.7106717144</v>
@@ -26353,7 +26355,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="P2" t="n">
-        <v>90151.75317155516</v>
+        <v>126821.7106717144</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471669</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26432,16 @@
         <v>18764.36858177456</v>
       </c>
       <c r="G4" t="n">
-        <v>18764.36858177456</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="H4" t="n">
         <v>26396.92784106698</v>
       </c>
       <c r="I4" t="n">
-        <v>36627.36441030847</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="J4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="K4" t="n">
         <v>26396.92784106698</v>
@@ -26448,7 +26450,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="M4" t="n">
-        <v>26396.92784106698</v>
+        <v>26396.92784106699</v>
       </c>
       <c r="N4" t="n">
         <v>26396.92784106698</v>
@@ -26457,7 +26459,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="P4" t="n">
-        <v>18764.36858177456</v>
+        <v>26396.92784106698</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>66382.11269898004</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-130228.7042071517</v>
       </c>
       <c r="C6" t="n">
-        <v>11962.59645255823</v>
+        <v>11962.59645255825</v>
       </c>
       <c r="D6" t="n">
         <v>11962.59645255825</v>
       </c>
       <c r="E6" t="n">
-        <v>45590.19645255822</v>
+        <v>45590.19645255823</v>
       </c>
       <c r="F6" t="n">
-        <v>45590.19645255822</v>
+        <v>45590.19645255824</v>
       </c>
       <c r="G6" t="n">
-        <v>45590.19645255823</v>
+        <v>-6822.917025826966</v>
       </c>
       <c r="H6" t="n">
-        <v>-5782.911089127701</v>
+        <v>59839.85826888976</v>
       </c>
       <c r="I6" t="n">
-        <v>-39865.7153538367</v>
+        <v>59839.85826888979</v>
       </c>
       <c r="J6" t="n">
-        <v>59839.85826888974</v>
+        <v>-51174.60707610045</v>
       </c>
       <c r="K6" t="n">
-        <v>59839.85826888975</v>
+        <v>59839.85826888976</v>
       </c>
       <c r="L6" t="n">
-        <v>59839.85826888977</v>
+        <v>59839.85826888973</v>
       </c>
       <c r="M6" t="n">
         <v>59839.85826888974</v>
       </c>
       <c r="N6" t="n">
-        <v>59839.85826888975</v>
+        <v>59839.85826888976</v>
       </c>
       <c r="O6" t="n">
-        <v>59839.85826888975</v>
+        <v>1308.878691573002</v>
       </c>
       <c r="P6" t="n">
-        <v>45590.19645255824</v>
+        <v>59839.85826888976</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>243.2193490877526</v>
-      </c>
-      <c r="I4" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34936,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>288.796249040161</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35489,22 +35491,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M13" t="n">
         <v>424.2958575201044</v>
@@ -35580,7 +35582,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>491.0626261163229</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,25 +36600,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O26" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36756,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36835,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36993,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37230,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K35" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37467,10 +37469,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37546,22 +37548,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>640.5448952297621</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37704,16 +37706,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,10 +37943,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110248.8936678676</v>
+        <v>104869.818281838</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>402.8910785008889</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>170.016082914965</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,16 +825,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125.658475013283</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>90.56719172652049</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>290.9044362257064</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>403.8643073193109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>65.56631229518105</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>181.4228648960254</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.98583392895367</v>
       </c>
       <c r="V8" t="n">
-        <v>28.84968802901818</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>12.96107161757506</v>
       </c>
       <c r="G10" t="n">
-        <v>136.765369836341</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>149.9470597982748</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.169714451388327</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>64.68494615425635</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>175.7069998349403</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.609587791059592</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.35369462431554</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>260.2915433175625</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>327.5057043920406</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>141.8554506993349</v>
       </c>
     </row>
     <row r="18">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>113.7218216744503</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>246.3590692018454</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>195.7044182469673</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>244.5148872964057</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>267.960108666678</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>35.75633396116289</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>17.03556969673445</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>244.6903493140397</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H28" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>144.9422074992852</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>267.960108666679</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>410.8935339489892</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>327.9183258711724</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3271,10 +3271,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>28.90513582528572</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>201.4371875671831</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>41.77118486549563</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>314.8435364600415</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>160.3236401378641</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>42.65814886480813</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>155.9995894427411</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.05677735225751</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>26.41040541581642</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.72569810841502</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>268.3727301458104</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>75.74046452697239</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>94.21878984361676</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.6770856874316</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C2" t="n">
-        <v>205.6770856874316</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="D2" t="n">
-        <v>205.6770856874316</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="E2" t="n">
-        <v>205.6770856874316</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4330,28 +4330,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.6770856874316</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,34 +4397,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9024004297028</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C4" t="n">
-        <v>492.3406889129277</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>326.4626961144504</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>326.4626961144504</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>326.4626961144504</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>160.8714211402781</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X4" t="n">
-        <v>892.3220711155946</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.9024004297028</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>869.7548429593813</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C5" t="n">
-        <v>869.7548429593813</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D5" t="n">
-        <v>869.7548429593813</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4570,49 +4570,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X5" t="n">
-        <v>1278.040966659728</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y5" t="n">
-        <v>869.7548429593813</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.5392701431375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="C7" t="n">
-        <v>365.5392701431375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D7" t="n">
-        <v>365.5392701431375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E7" t="n">
-        <v>365.5392701431375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>188.8322161048937</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>188.8322161048937</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>1513.928010993523</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>1235.495010246628</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909325</v>
+        <v>948.5395021170589</v>
       </c>
       <c r="W7" t="n">
-        <v>838.3506954956167</v>
+        <v>676.5130977033504</v>
       </c>
       <c r="X7" t="n">
-        <v>592.9589408290292</v>
+        <v>431.1213430367628</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.5392701431375</v>
+        <v>203.7016723508711</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C8" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="D8" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E8" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4837,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1645.682587727939</v>
       </c>
       <c r="V8" t="n">
-        <v>1668.042331061207</v>
+        <v>1283.065637661765</v>
       </c>
       <c r="W8" t="n">
-        <v>1263.18687647224</v>
+        <v>1283.065637661765</v>
       </c>
       <c r="X8" t="n">
-        <v>844.044413051551</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.7582893512044</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400.6526303550848</v>
+        <v>467.1648771324868</v>
       </c>
       <c r="C10" t="n">
-        <v>400.6526303550848</v>
+        <v>467.1648771324868</v>
       </c>
       <c r="D10" t="n">
-        <v>400.6526303550848</v>
+        <v>301.2868843340094</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6526303550848</v>
+        <v>301.2868843340094</v>
       </c>
       <c r="F10" t="n">
-        <v>400.6526303550848</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
         <v>122.603617826933</v>
@@ -4962,19 +4962,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N10" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W10" t="n">
-        <v>592.4712490740719</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="X10" t="n">
-        <v>592.4712490740719</v>
+        <v>886.4031665373657</v>
       </c>
       <c r="Y10" t="n">
-        <v>592.4712490740719</v>
+        <v>658.9834958514739</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>185.4053451655222</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>185.4053451655222</v>
       </c>
       <c r="D11" t="n">
-        <v>444.6038378080297</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E11" t="n">
-        <v>444.6038378080297</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5044,19 +5044,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>611.7049156504301</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>611.7049156504301</v>
       </c>
     </row>
     <row r="12">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.5838762389023</v>
+        <v>445.7470558378587</v>
       </c>
       <c r="C13" t="n">
-        <v>682.0221647221273</v>
+        <v>445.7470558378587</v>
       </c>
       <c r="D13" t="n">
-        <v>516.14417192365</v>
+        <v>445.7470558378587</v>
       </c>
       <c r="E13" t="n">
-        <v>516.14417192365</v>
+        <v>275.9890520885959</v>
       </c>
       <c r="F13" t="n">
-        <v>339.4371178854062</v>
+        <v>99.28199805035214</v>
       </c>
       <c r="G13" t="n">
-        <v>173.8458429112338</v>
+        <v>99.28199805035214</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>99.28199805035214</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>761.43086230084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M13" t="n">
-        <v>1181.483761245743</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N13" t="n">
-        <v>1181.483761245743</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P13" t="n">
         <v>1528.990655216085</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U13" t="n">
-        <v>1273.822165643781</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V13" t="n">
-        <v>1273.822165643781</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.822165643781</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X13" t="n">
-        <v>1273.822165643781</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y13" t="n">
-        <v>1046.40249495789</v>
+        <v>637.5656745568458</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.59981788550692</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5317,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>873.1855120707613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y14" t="n">
-        <v>464.8993883704147</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="15">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.0515783881802</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C16" t="n">
-        <v>365.0515783881802</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D16" t="n">
-        <v>365.0515783881802</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E16" t="n">
-        <v>365.0515783881802</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F16" t="n">
-        <v>188.3445243499364</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>188.3445243499364</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
-        <v>48.44235004031091</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.45316161735</v>
+        <v>1434.262679254597</v>
       </c>
       <c r="V16" t="n">
-        <v>864.4976534877803</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W16" t="n">
-        <v>592.4712490740719</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X16" t="n">
-        <v>592.4712490740719</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y16" t="n">
-        <v>365.0515783881802</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1075.159834655251</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.159834655251</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D17" t="n">
-        <v>1075.159834655251</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E17" t="n">
-        <v>1075.159834655251</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F17" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G17" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
         <v>53.40121652862856</v>
@@ -5518,16 +5518,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
@@ -5542,25 +5542,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355598</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655251</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="18">
@@ -5685,7 +5685,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
         <v>2154.361157596754</v>
@@ -5697,25 +5697,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2128.651663069363</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1841.696154939793</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y19" t="n">
         <v>1324.277995859497</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.983069159478</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="C20" t="n">
-        <v>1567.840596342901</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="D20" t="n">
-        <v>1131.930811517346</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E20" t="n">
-        <v>1131.930811517346</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F20" t="n">
-        <v>704.0633819265533</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G20" t="n">
-        <v>302.6655505498172</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K20" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L20" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M20" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N20" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
         <v>1293.567921177998</v>
@@ -5782,22 +5782,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U20" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V20" t="n">
-        <v>2410.838523748444</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W20" t="n">
-        <v>2005.983069159478</v>
+        <v>1630.473116002817</v>
       </c>
       <c r="X20" t="n">
-        <v>2005.983069159478</v>
+        <v>1630.473116002817</v>
       </c>
       <c r="Y20" t="n">
-        <v>2005.983069159478</v>
+        <v>1630.473116002817</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
         <v>1058.729261281022</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
         <v>53.40121652862856</v>
@@ -5922,7 +5922,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5940,22 +5940,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2634.504334502149</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U22" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1576.252829563191</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="C23" t="n">
-        <v>1138.110356746614</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="D23" t="n">
-        <v>702.2005719210588</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="E23" t="n">
-        <v>455.2158372782247</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="F23" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M23" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U23" t="n">
-        <v>2410.838523748445</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V23" t="n">
-        <v>2410.838523748445</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W23" t="n">
-        <v>2410.838523748445</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X23" t="n">
-        <v>2410.838523748445</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y23" t="n">
-        <v>2002.552400048099</v>
+        <v>1015.012768265996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C25" t="n">
-        <v>705.359723599933</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D25" t="n">
-        <v>705.359723599933</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E25" t="n">
-        <v>535.6017198506702</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F25" t="n">
-        <v>358.8946658124264</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G25" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6174,25 +6174,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S25" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U25" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V25" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W25" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X25" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y25" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>991.5079608390889</v>
+        <v>1199.696110809903</v>
       </c>
       <c r="C26" t="n">
-        <v>991.5079608390889</v>
+        <v>761.553637993326</v>
       </c>
       <c r="D26" t="n">
-        <v>991.5079608390889</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E26" t="n">
-        <v>991.5079608390889</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F26" t="n">
         <v>744.3459918350084</v>
@@ -6220,10 +6220,10 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6232,46 +6232,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O26" t="n">
         <v>1810.336013065103</v>
       </c>
-      <c r="M26" t="n">
-        <v>1810.336013065103</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2009.22077188965</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2670.060826431428</v>
-      </c>
       <c r="P26" t="n">
-        <v>2670.060826431428</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V26" t="n">
-        <v>2223.792002549092</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W26" t="n">
-        <v>1818.936547960125</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X26" t="n">
-        <v>1399.794084539436</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y26" t="n">
-        <v>991.5079608390889</v>
+        <v>1625.99568129481</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.8950539462408</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C28" t="n">
-        <v>590.3333424294657</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4553496309884</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E28" t="n">
-        <v>254.6973458817257</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F28" t="n">
-        <v>77.99029184348186</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G28" t="n">
-        <v>77.99029184348186</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6390,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.7136726652279</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>744.3459918350084</v>
+        <v>1318.202902254239</v>
       </c>
       <c r="C29" t="n">
-        <v>744.3459918350084</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="D29" t="n">
-        <v>744.3459918350084</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E29" t="n">
-        <v>744.3459918350084</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F29" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L29" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.771296621484</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W29" t="n">
-        <v>1423.298891966344</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X29" t="n">
-        <v>1152.632115535355</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y29" t="n">
-        <v>744.3459918350084</v>
+        <v>1744.502472739146</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D31" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6627,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T31" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U31" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V31" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W31" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y31" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1075.159834655252</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="C32" t="n">
-        <v>1075.159834655252</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.159834655252</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E32" t="n">
-        <v>743.9292024621484</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F32" t="n">
         <v>743.9292024621484</v>
@@ -6694,10 +6694,10 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6706,22 +6706,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6733,19 +6733,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V32" t="n">
-        <v>2307.443876365255</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W32" t="n">
-        <v>1902.588421776288</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X32" t="n">
-        <v>1483.445958355599</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y32" t="n">
-        <v>1075.159834655252</v>
+        <v>1586.840605738788</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6782,19 +6782,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6864,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1756.718735138289</v>
+        <v>1754.583695154438</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.576262321712</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D35" t="n">
-        <v>882.6664774961569</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E35" t="n">
         <v>882.6664774961569</v>
@@ -6928,61 +6928,61 @@
         <v>454.7990479053647</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2640.8637195372</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2420.796492410239</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2161.574189727256</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>2161.574189727256</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W35" t="n">
-        <v>1756.718735138289</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X35" t="n">
-        <v>1756.718735138289</v>
+        <v>2162.869818854785</v>
       </c>
       <c r="Y35" t="n">
-        <v>1756.718735138289</v>
+        <v>1754.583695154438</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7101,7 +7101,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2468.626341703672</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>2190.193340956777</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1177.703947303853</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.703947303853</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.703947303853</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L38" t="n">
-        <v>714.241271070407</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M38" t="n">
-        <v>1375.081325612186</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N38" t="n">
-        <v>2035.921380153964</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O38" t="n">
-        <v>2123.562040472834</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P38" t="n">
-        <v>2123.562040472834</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739147</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.647018150181</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X38" t="n">
-        <v>1177.703947303853</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y38" t="n">
-        <v>1177.703947303853</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C40" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D40" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E40" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F40" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7338,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T40" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U40" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V40" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W40" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X40" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y40" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.071675278725</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E41" t="n">
         <v>743.9292024621484</v>
@@ -7405,58 +7405,58 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2626.971787174046</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2626.971787174046</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.119422805321</v>
+        <v>2367.749484491063</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739147</v>
+        <v>2005.132534424889</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.647018150181</v>
+        <v>2005.132534424889</v>
       </c>
       <c r="X41" t="n">
-        <v>1182.071675278725</v>
+        <v>1585.9900710042</v>
       </c>
       <c r="Y41" t="n">
-        <v>1182.071675278725</v>
+        <v>1177.703947303853</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055599</v>
+        <v>874.0414241659225</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887848</v>
+        <v>701.4797126491475</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903075</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K43" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324152</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388744</v>
+        <v>2621.965827949106</v>
       </c>
       <c r="T43" t="n">
-        <v>2405.942210967199</v>
+        <v>2376.086381527562</v>
       </c>
       <c r="U43" t="n">
-        <v>2127.509210220304</v>
+        <v>2097.653380780667</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.553702090735</v>
+        <v>1810.697872651097</v>
       </c>
       <c r="W43" t="n">
-        <v>1568.527297677026</v>
+        <v>1538.671468237389</v>
       </c>
       <c r="X43" t="n">
-        <v>1323.135543010439</v>
+        <v>1293.279713570802</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.715872324547</v>
+        <v>1065.86004288491</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="C44" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D44" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E44" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F44" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
@@ -7654,46 +7654,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>1293.567921177998</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M44" t="n">
-        <v>1293.567921177998</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.567921177998</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2604.681333392625</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.993599304467</v>
+        <v>2604.681333392625</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.771296621484</v>
+        <v>2604.681333392625</v>
       </c>
       <c r="V44" t="n">
-        <v>1828.15434655531</v>
+        <v>2604.681333392625</v>
       </c>
       <c r="W44" t="n">
-        <v>1423.298891966344</v>
+        <v>2604.681333392625</v>
       </c>
       <c r="X44" t="n">
-        <v>1152.215326162495</v>
+        <v>2185.538869971936</v>
       </c>
       <c r="Y44" t="n">
-        <v>743.9292024621484</v>
+        <v>1777.252746271589</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.1364226482442</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C46" t="n">
-        <v>749.5747111314691</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D46" t="n">
-        <v>583.6967183329918</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E46" t="n">
-        <v>413.9387145837291</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F46" t="n">
-        <v>237.2316605454853</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G46" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7812,7 +7812,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
         <v>1292.433105213328</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T46" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W46" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,10 +8218,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8692,22 +8692,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8929,22 +8929,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L17" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9880,25 +9880,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,14 +10111,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10354,7 +10354,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11302,7 +11302,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047208</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>28.65960847641099</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>253.5726723799193</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22603,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,16 +22713,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>12.8446775532462</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>152.3706453934012</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>131.1321385543523</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>25.57269007397684</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22849,10 +22849,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22950,19 +22950,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>72.93684027134817</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>61.99778706130391</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>205.6442457271996</v>
       </c>
       <c r="V8" t="n">
-        <v>330.1410925364935</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>161.9789118802863</v>
       </c>
       <c r="G10" t="n">
-        <v>27.16999238808958</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>281.6036271790251</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>414.419040843496</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>23.08840357881506</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>99.94167090448542</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>429.1514602973513</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>23.6640617592609</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23670,10 +23670,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>73.41965510875588</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>15.3571274218632</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,7 +23743,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>96.08305090284369</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>262.3478117640082</v>
       </c>
     </row>
     <row r="18">
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>39.87978380937054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>205.1024817961097</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>184.922110096882</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>155.6286466282064</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.0797604404444</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>414.5151172805654</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>178.8984059808446</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1599680048245</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>288.8188405891257</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,7 +24691,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9909301198034</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>11.14304083106947</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,10 +24925,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>101.5186715221153</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>53.91021925271564</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>213.5138512192993</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>201.6494670918337</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>44.14724410547018</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>254.6273986486183</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.15720621319323</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>258.9514493437413</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.146865729424327</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>131.2385495991669</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>18.08965696958634</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>146.578308640672</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>69.71657238081384</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348952.8680817555</v>
+        <v>348952.8680817556</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>348952.8680817555</v>
+        <v>348952.8680817558</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348952.8680817556</v>
+        <v>348952.8680817557</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490892.2801502736</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490892.2801502736</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490892.2801502736</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490892.2801502736</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490892.2801502736</v>
+        <v>490892.2801502735</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>90151.75317155512</v>
       </c>
       <c r="C2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="D2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="E2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="F2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="G2" t="n">
         <v>126821.7106717144</v>
@@ -26334,7 +26334,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="I2" t="n">
-        <v>126821.7106717145</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="J2" t="n">
         <v>126821.7106717144</v>
@@ -26441,7 +26441,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="J4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="K4" t="n">
         <v>26396.92784106698</v>
@@ -26450,7 +26450,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="M4" t="n">
-        <v>26396.92784106699</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="N4" t="n">
         <v>26396.92784106698</v>
@@ -26490,28 +26490,28 @@
         <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130228.7042071517</v>
+        <v>-130968.0608190674</v>
       </c>
       <c r="C6" t="n">
-        <v>11962.59645255825</v>
+        <v>11223.23984064256</v>
       </c>
       <c r="D6" t="n">
-        <v>11962.59645255825</v>
+        <v>11223.23984064258</v>
       </c>
       <c r="E6" t="n">
-        <v>45590.19645255823</v>
+        <v>44850.83984064256</v>
       </c>
       <c r="F6" t="n">
-        <v>45590.19645255824</v>
+        <v>44850.83984064256</v>
       </c>
       <c r="G6" t="n">
-        <v>-6822.917025826966</v>
+        <v>-7317.80725440821</v>
       </c>
       <c r="H6" t="n">
-        <v>59839.85826888976</v>
+        <v>59344.96804030848</v>
       </c>
       <c r="I6" t="n">
-        <v>59839.85826888979</v>
+        <v>59344.96804030848</v>
       </c>
       <c r="J6" t="n">
-        <v>-51174.60707610045</v>
+        <v>-51669.49730468169</v>
       </c>
       <c r="K6" t="n">
-        <v>59839.85826888976</v>
+        <v>59344.96804030849</v>
       </c>
       <c r="L6" t="n">
-        <v>59839.85826888973</v>
+        <v>59344.96804030846</v>
       </c>
       <c r="M6" t="n">
-        <v>59839.85826888974</v>
+        <v>59344.96804030849</v>
       </c>
       <c r="N6" t="n">
-        <v>59839.85826888976</v>
+        <v>59344.96804030849</v>
       </c>
       <c r="O6" t="n">
-        <v>1308.878691573002</v>
+        <v>813.9884629917215</v>
       </c>
       <c r="P6" t="n">
-        <v>59839.85826888976</v>
+        <v>59344.96804030848</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,10 +34938,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35412,22 +35412,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35649,22 +35649,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L17" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36360,7 +36360,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,13 +36369,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36600,25 +36600,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36758,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36831,14 +36831,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36995,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37074,7 +37074,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37232,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37469,10 +37469,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37782,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38022,7 +38022,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047208</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38180,10 +38180,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
